--- a/STRAT/INPUT_STRAT_DATA.xlsx
+++ b/STRAT/INPUT_STRAT_DATA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Strategy</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>SPY CALL DEBET SPREAD</t>
+  </si>
+  <si>
+    <t>CALL DEBET SPREAD</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,6 +454,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/STRAT/INPUT_STRAT_DATA.xlsx
+++ b/STRAT/INPUT_STRAT_DATA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Strategy</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CALL DEBET SPREAD</t>
+  </si>
+  <si>
+    <t>CREDIT STRADDLE</t>
   </si>
 </sst>
 </file>
@@ -376,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,6 +471,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/STRAT/INPUT_STRAT_DATA.xlsx
+++ b/STRAT/INPUT_STRAT_DATA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Strategy</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>CREDIT STRADDLE</t>
+  </si>
+  <si>
+    <t>GLD</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +485,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
